--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3351074.707665824</v>
+        <v>3348781.112209229</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>196.6997841156786</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>125.2942148585658</v>
+        <v>56.3083098349818</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>92.62644846798788</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>117.4348208125962</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7083496784893</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>54.26003672910142</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>9.795251606876494</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>78.91051008678102</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2363.652677778257</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2363.652677778257</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2363.652677778257</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2363.652677778257</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.8065995564534</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>177.8065995564534</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>177.8065995564534</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>177.8065995564534</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>177.8065995564534</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>177.8065995564534</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302233</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.4550643866932</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392149</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392149</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>167.0196863409706</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>160.0741855917672</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.2700148307995</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>776.2700148307995</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1533754184637</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>478.2402818360706</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>331.3503343381602</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.2700148307995</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417424</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191801</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295725</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,13 +4802,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028708</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1872.48643018031</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1617.801941974423</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1328.384771937462</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395221039445</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5018,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892237</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -5990,31 +5990,31 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,19 +6060,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
         <v>1186.520756890282</v>
@@ -6084,10 +6084,10 @@
         <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8202214113359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>69.70496293143134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556016</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210053</v>
@@ -26344,16 +26344,16 @@
         <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551206</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768879</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768879</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="G4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>9947.144321768879</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9947.144321768879</v>
+      </c>
+      <c r="N4" t="n">
         <v>9947.144321768923</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768938</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9947.144321768897</v>
-      </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606682.3735451319</v>
+        <v>-606682.3735451315</v>
       </c>
       <c r="C6" t="n">
-        <v>338430.731611236</v>
+        <v>338430.7316112361</v>
       </c>
       <c r="D6" t="n">
         <v>541869.4732233417</v>
       </c>
       <c r="E6" t="n">
-        <v>289949.8037679739</v>
+        <v>289915.0658425381</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753291</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753294</v>
+        <v>615327.5276498934</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753294</v>
+        <v>615327.5276498934</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753295</v>
+        <v>615327.5276498934</v>
       </c>
       <c r="J6" t="n">
-        <v>447757.0877653467</v>
+        <v>447722.3498399107</v>
       </c>
       <c r="K6" t="n">
-        <v>566252.1728692747</v>
+        <v>566217.4349438392</v>
       </c>
       <c r="L6" t="n">
-        <v>615362.2655753291</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="M6" t="n">
-        <v>530307.2376398174</v>
+        <v>530272.4997143815</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753294</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.527649894</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>190.8166233022536</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.584832100039</v>
-      </c>
-      <c r="K4" t="n">
-        <v>190.8166233022541</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>54.34546601278345</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>21.95729429656301</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>318.2952771854656</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>48.59098744643201</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2133759749642</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>231.9518014765115</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.220986209894276e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28141,16 +28141,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722585</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502402</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
